--- a/biology/Médecine/Gaetano_Grassetti/Gaetano_Grassetti.xlsx
+++ b/biology/Médecine/Gaetano_Grassetti/Gaetano_Grassetti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaetano Grassetti, né en 1778 à Rome et mort à Naples en 1836, est un médecin et aéronaute italien.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est un des membres en 1803 du vol laborieux en ballon, fait à partir de Bologne, de Pasquale Andreoli et Francesco Zambeccari et n'est sauvé qu'en mer.
-Il étudie ensuite la médecine à Bologne et devient en 1809 médecin à l'hôpital de Ravenne ainsi que professeur de français[1].
-En 1815, il doit s'exiler en Grèce, à Patras, en raison de son soutien déclaré à la France. Il enseigne alors la littérature italienne à Zante et à Corfu[2]. En 1825, il traduit en italien et en prose l’Hymne à la Liberté écrit par le poète Dionýsios Solomós en 1823 et futur hymne national de la Grèce et de Chypre[3].
-Il est nommé dans la nouvelle de Jules Verne Un drame dans les airs sous le nom « Grossetti ». Jules Verne par ailleurs place par erreur le vol en 1804[4].
+Il étudie ensuite la médecine à Bologne et devient en 1809 médecin à l'hôpital de Ravenne ainsi que professeur de français.
+En 1815, il doit s'exiler en Grèce, à Patras, en raison de son soutien déclaré à la France. Il enseigne alors la littérature italienne à Zante et à Corfu. En 1825, il traduit en italien et en prose l’Hymne à la Liberté écrit par le poète Dionýsios Solomós en 1823 et futur hymne national de la Grèce et de Chypre.
+Il est nommé dans la nouvelle de Jules Verne Un drame dans les airs sous le nom « Grossetti ». Jules Verne par ailleurs place par erreur le vol en 1804.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1803 : Relazione del viaggio aereo...
 1809 : Dell'aria ravennata, opérette
